--- a/biology/Médecine/Maladie_métabolique_génétique/Maladie_métabolique_génétique.xlsx
+++ b/biology/Médecine/Maladie_métabolique_génétique/Maladie_métabolique_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+          <t>Maladie_métabolique_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies métaboliques génétiques (ou congénitales), aussi appelées maladies héréditaires du métabolisme, englobent une large classe de maladies génétiques impliquant des troubles du métabolisme. La plupart d'entre elles sont dues à des défauts d'un simple gène portant le code d'une enzyme qui catalyse la conversion de diverses substances (substrats) en d'autres (produits). Dans le cas de la plupart de ces troubles, des problèmes se manifestent à cause de l'accumulation de substances toxiques ou de substances interférant avec une fonction normale, ou à cause des effets de la capacité réduite de synthétiser des composés essentiels.
 C'est un médecin britannique, Archibald Garrod (1857-1936), qui inventa le terme "inborn errors of metabolism" (= "erreurs innées du métabolisme") au début du XXe siècle. On lui doit l'hypothèse de "un gène, une enzyme", qu'il formula d'après ses études sur la nature et la transmission de l'alcaptonurie. Son texte-clé, Inborn Errors of Metabolism fut publié en 1923.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+          <t>Maladie_métabolique_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,21 +526,135 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Les maladies par intoxication
-Troubles du métabolisme des acides aminés (par exemple, maladie dite "du sirop d'érable")
+          <t>Les maladies par intoxication</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Troubles du métabolisme des acides aminés (par exemple, maladie dite "du sirop d'érable")
 Anomalie du cycle de l'urée
 Troubles du métabolisme des métaux
 Métabolisme du cuivre
-Métabolisme du fer
-Les maladies par déficit énergétique
-Déficit cytoplasmique
-Glycogénose
-Déficit mitochondrial
-Syndrome de Kearns-Sayre
+Métabolisme du fer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maladie_métabolique_génétique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principales catégories de maladies congénitales du métabolismes[1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les maladies par déficit énergétique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Déficit cytoplasmique</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Glycogénose</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maladie_métabolique_génétique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales catégories de maladies congénitales du métabolismes[1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les maladies par déficit énergétique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Déficit mitochondrial</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome de Kearns-Sayre
 Déficits de la chaine respiratoire (par exemple, déficit isolé en complexe I)
-Déficits de l'oxydation des acides-gras
-Les maladies des molécules complexes
-Troubles de la fonction peroxysomale
+Déficits de l'oxydation des acides-gras</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maladie_métabolique_génétique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales catégories de maladies congénitales du métabolismes[1]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les maladies des molécules complexes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Troubles de la fonction peroxysomale
 Maladies de surcharge des lysosomes
 Troubles du métabolisme des porphyrines (par exemple, porphyrie aiguë intermittente)
 Anomalies congénitales de la glycosylation
@@ -537,96 +663,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Manifestations et présentations</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Techniques de diagnostic</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Dépistage néonatal</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, parmi les cinq maladies à dépistage néonatal systématique par prélèvement sanguin, la phénylcétonurie et l'hyperplasie congénitale des surrénales sont des maladies métaboliques génétiques [2]. En 2011, la HAS émet une recommandation[3] pour l'extension du dépistage néonatal au déficit en acyl-coenzyme A déshydrogénase des acides gras à chaîne moyenne (MCAD).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+          <t>Maladie_métabolique_génétique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +684,101 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Manifestations et présentations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maladie_métabolique_génétique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Techniques de diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maladie_métabolique_génétique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dépistage néonatal</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, parmi les cinq maladies à dépistage néonatal systématique par prélèvement sanguin, la phénylcétonurie et l'hyperplasie congénitale des surrénales sont des maladies métaboliques génétiques . En 2011, la HAS émet une recommandation pour l'extension du dépistage néonatal au déficit en acyl-coenzyme A déshydrogénase des acides gras à chaîne moyenne (MCAD).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maladie_métabolique_génétique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_m%C3%A9tabolique_g%C3%A9n%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Gestion de la maladie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Restrictions diététiques (régime)
 par exemple, la réduction des protéines alimentaires reste une des bases du traitement de la phénylcétonurie et d'autres troubles des acides aminés.
@@ -657,7 +791,7 @@
 Transplantation de moelle osseuse ou d'organes
 Traitement des symptômes et des complications
 Diagnostic prénatal pour éviter les grossesses à risque ou l'avortement du fœtus atteint
-En France, la prise en charge des patients atteints de maladies métaboliques génétiques peut être coordonnée par la filière maladie rare Groupement des Maladies héréditaires du Métabolisme (G2M)[4]. Cette filière regroupe des Centres de Références Maladies Rares (CRMR) et des Centres de Compétences habilités à effectuer un suivi du patient.
+En France, la prise en charge des patients atteints de maladies métaboliques génétiques peut être coordonnée par la filière maladie rare Groupement des Maladies héréditaires du Métabolisme (G2M). Cette filière regroupe des Centres de Références Maladies Rares (CRMR) et des Centres de Compétences habilités à effectuer un suivi du patient.
 </t>
         </is>
       </c>
